--- a/data/sexualMisconduct_science.xlsx
+++ b/data/sexualMisconduct_science.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/Documents/GitHub/ms1-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4F4C1D-C30D-7E4E-8408-4828635AB4EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{785B7338-810C-084F-89DF-F787988847FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{60215940-84F8-4E4C-A32E-E499A1496132}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="27240" windowHeight="16040" xr2:uid="{60215940-84F8-4E4C-A32E-E499A1496132}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sexualMisconduct_science" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="740">
   <si>
     <t>Harry Keller</t>
   </si>
@@ -84,9 +84,6 @@
     <t>SUSPENDED FOR DATING STUDENTS/RESIGNED.</t>
   </si>
   <si>
-    <t>resigned</t>
-  </si>
-  <si>
     <t>http://www.upi.com/Archives/1982/06/03/Sex-professor-resigns-post/4188391924800/</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>KILLED HIMSELF WHILE CRIMINAL INVESTIGATION WAS ONGOING.</t>
   </si>
   <si>
-    <t>suicide</t>
-  </si>
-  <si>
     <t>http://www.upi.com/Archives/1991/10/11/A-Ball-State-University-instructor-accused-by-a-woman/4771687153600/</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>BARRED FROM FEDERAL GRANT SUPPORT FOR FIVE YEARS.</t>
   </si>
   <si>
-    <t>no grant support</t>
-  </si>
-  <si>
     <t>http://chronicle.com/article/Researcher-Penalized-After/87552</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>REPRIMANDED</t>
   </si>
   <si>
-    <t>reprimanded</t>
-  </si>
-  <si>
     <t>http://www.nydailynews.com/archives/news/prof-sues-13m-harass-charges-article-1.739241</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>ARRESTED AND CHARGED WITH STALKING OF STUDENT.</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>http://articles.orlandosentinel.com/1993-02-25/news/9302240767_1_stalking-sarver-aitken</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>BANNED, HAD ALREADY MOVED TO GREECE.</t>
   </si>
   <si>
-    <t>banned</t>
-  </si>
-  <si>
     <t>http://articles.philly.com/1994-11-11/news/25865990_1_sexual-advances-sexual-harassment-temple-university-school</t>
   </si>
   <si>
@@ -381,9 +363,6 @@
     <t>UNIVERSITY FINDING OF SEXUAL HARASSMENT – OUTCOME UNCLEAR.</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>http://www.iowastatedaily.com/article_da090e7b-cfbe-5e64-8073-f4db4aa6cc88.html</t>
   </si>
   <si>
@@ -393,9 +372,6 @@
     <t>PERMANENT REDUCTION IN PAY.</t>
   </si>
   <si>
-    <t>reduction in pay</t>
-  </si>
-  <si>
     <t>http://www.paloaltoonline.com/weekly/morgue/news/1995_Apr_28.HARASS.html *Member of U.S. National Academy of Medicine, elected 1985; https://nam.edu/member/?member_id=J3iVHZqp6C636SImDGoL8A%3D%3D.</t>
   </si>
   <si>
@@ -405,9 +381,6 @@
     <t>RETIRED AND LEGAL SETTLEMENT.</t>
   </si>
   <si>
-    <t>retired</t>
-  </si>
-  <si>
     <t>Joseph H. Levenstein</t>
   </si>
   <si>
@@ -543,9 +516,6 @@
     <t>IMPRISONED.</t>
   </si>
   <si>
-    <t>imprisoned</t>
-  </si>
-  <si>
     <t>http://www.psu.edu/ur/archives/intercom_1998/Sept3/prof.html</t>
   </si>
   <si>
@@ -609,9 +579,6 @@
     <t>ACCUSED SETTLED OUT OF COURT, JURY VERDICT AGAINST UNIVERSITY.</t>
   </si>
   <si>
-    <t>lawsuit settled</t>
-  </si>
-  <si>
     <t>http://writ.news.findlaw.com/grossman/20010828.html</t>
   </si>
   <si>
@@ -762,9 +729,6 @@
     <t>RESIGNED</t>
   </si>
   <si>
-    <t>esigned</t>
-  </si>
-  <si>
     <t>http://www.studlife.com/archives/News/2006/10/09/Professorresignsamidstsexualmisconductallegations/</t>
   </si>
   <si>
@@ -810,9 +774,6 @@
     <t>REMOVED FROM DEPARTMENT CHAIR POSITION BECAUSE OF INAPPROPRIATE RELATIONSHIPS WITH STUDENTS</t>
   </si>
   <si>
-    <t>removed from chair position</t>
-  </si>
-  <si>
     <t>https://www.twincities.com/2007/06/15/stevens-point-biology-chair-removed-for-dating-2-students/</t>
   </si>
   <si>
@@ -825,9 +786,6 @@
     <t>LETTER OF REPRIMAND/BANNED FROM CAMPUS.</t>
   </si>
   <si>
-    <t>banned from campus</t>
-  </si>
-  <si>
     <t>http://www.courthousenews.com/2012/07/12/48328.htm</t>
   </si>
   <si>
@@ -1413,9 +1371,6 @@
     <t>MIT. REMOVED FROM TEACHING AND STRIPPED OF EMERITUS TITLE.</t>
   </si>
   <si>
-    <t>removed from emiritus</t>
-  </si>
-  <si>
     <t>https://www.insidehighered.com/news/2015/01/23/complainant-unprecedented-walter-lewin-sexual-harassment-case-comes-forward AND https://news.mit.edu/2014/lewin-courses-removed-1208</t>
   </si>
   <si>
@@ -1476,9 +1431,6 @@
     <t>REQUIRED TO COMPLETE SEXUAL HARASSMENT TRAINING AT UNIVERSITY OF ARIZONA</t>
   </si>
   <si>
-    <t>training</t>
-  </si>
-  <si>
     <t>http://mashable.com/2016/01/12/astronomy-professor-sexual-harassment-university-of-arizona/#AcLLOtHTfiq1</t>
   </si>
   <si>
@@ -1503,9 +1455,6 @@
     <t>BANNED FROM LABORATORIES AND COLLECTIONS.</t>
   </si>
   <si>
-    <t>banned from labs</t>
-  </si>
-  <si>
     <t>https://www.theverge.com/2016/11/3/13507798/smithsonian-sexual-harassment-investigation-nmnh-miguel-pinto-banned</t>
   </si>
   <si>
@@ -1593,9 +1542,6 @@
     <t>ARRESTED FOR FILMING STUDENTS IN BATHROOM/DIED.</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>http://www.nydailynews.com/new-york/manhattan/suspected-perv-college-professor-found-dead-harlem-home-article-1.2721357</t>
   </si>
   <si>
@@ -1665,9 +1611,6 @@
     <t>PAID LEAVE; PLED GUILTY TO MISDEMEANOR</t>
   </si>
   <si>
-    <t>paid leave</t>
-  </si>
-  <si>
     <t>https://www.mydaytondailynews.com/news/suspended-wsu-prof-wants-teach-off-campus/a07xnoAakIumyD8O2FMkuI/</t>
   </si>
   <si>
@@ -1779,9 +1722,6 @@
     <t>DEMOTED.</t>
   </si>
   <si>
-    <t>demoted</t>
-  </si>
-  <si>
     <t>https://ucla.app.box.com/s/y9zgx73mxtbl0a1774gt5jqzdsk3ecs1/1/20289853308/141212899105/1</t>
   </si>
   <si>
@@ -1824,9 +1764,6 @@
     <t>SEXUALLY HARASSED FELLOW UNDER HIS SUPERVISION, FELLOW PAID MORE THAN $10,000. VARMA APPOINTED, AND THEN REMOVED, AS MEDICAL SCHOOL DEAN IN 2017.</t>
   </si>
   <si>
-    <t>removed from dean position</t>
-  </si>
-  <si>
     <t>http://www.latimes.com/local/lanow/la-me-usc-dean-harassment-20171005-story.html</t>
   </si>
   <si>
@@ -1974,9 +1911,6 @@
     <t>VIOLATED SEXUAL HARASSMENT RULES; REMOVED AS DIRECTOR OF “Nuclear Magnetic Resonance Center”.</t>
   </si>
   <si>
-    <t>removed from director position</t>
-  </si>
-  <si>
     <t>http://www.citypages.com/news/how-the-university-of-minnesota-hides-its-professors-sexual-harassment/481408991</t>
   </si>
   <si>
@@ -2142,9 +2076,6 @@
     <t>NON-RENEWED FOR MULTIPLE ALLEGATIONS, INCLUDING GRABBING A WOMAN'S BREAST; RECOMMENDED FOR FIRING.</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>https://www.knoxnews.com/story/news/local/arizona-education/2018/08/02/lawrence-krauss-out-director-asu-origins-project/894752002/; https://www.azcentral.com/story/news/local/arizona-education/2018/10/05/asu-professor-lawrence-krauss-should-fired-dean-michael-crow-final-decision/1538655002/</t>
   </si>
   <si>
@@ -2293,6 +2224,33 @@
   </si>
   <si>
     <t>Link(s)</t>
+  </si>
+  <si>
+    <t>banned from premisis</t>
+  </si>
+  <si>
+    <t>no action</t>
+  </si>
+  <si>
+    <t>banned from premesis</t>
+  </si>
+  <si>
+    <t>jury award</t>
+  </si>
+  <si>
+    <t>resigned/retired</t>
+  </si>
+  <si>
+    <t>arrested/imprisoned/convicted</t>
+  </si>
+  <si>
+    <t>demoted/reprimanded</t>
+  </si>
+  <si>
+    <t>lawsuit settled/monetary punishment</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
 </sst>
 </file>
@@ -2696,48 +2654,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AB1A1B-8F0F-8E4D-951D-72B5AB2CEDB8}">
   <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="10" width="34.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="B1" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="C1" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="D1" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="E1" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="F1" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="G1" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="H1" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="I1" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="J1" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="K1" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="L1" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2834,10 +2796,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2849,27 +2811,27 @@
         <v>1983</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="K5" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2881,7 +2843,7 @@
         <v>1983</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="6" t="s">
@@ -2892,16 +2854,16 @@
         <v>14</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2913,7 +2875,7 @@
         <v>1984</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6" t="s">
@@ -2924,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>11</v>
@@ -2933,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2945,7 +2907,7 @@
         <v>1989</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
@@ -2953,19 +2915,19 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2977,7 +2939,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6" t="s">
@@ -2985,19 +2947,19 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3009,7 +2971,7 @@
         <v>1991</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -3017,19 +2979,19 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3041,7 +3003,7 @@
         <v>1991</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
@@ -3049,19 +3011,19 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3073,7 +3035,7 @@
         <v>1991</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
@@ -3084,16 +3046,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3105,7 +3067,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6" t="s">
@@ -3116,16 +3078,16 @@
         <v>14</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3137,7 +3099,7 @@
         <v>1992</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="6" t="s">
@@ -3145,19 +3107,19 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3169,7 +3131,7 @@
         <v>1993</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
@@ -3177,19 +3139,19 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3201,7 +3163,7 @@
         <v>1994</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="6" t="s">
@@ -3212,16 +3174,16 @@
         <v>9</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3233,7 +3195,7 @@
         <v>1994</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
@@ -3241,19 +3203,19 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3265,7 +3227,7 @@
         <v>1994</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -3273,19 +3235,19 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>85</v>
+        <v>731</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3297,7 +3259,7 @@
         <v>1994</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="6" t="s">
@@ -3305,10 +3267,10 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>11</v>
@@ -3317,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3329,7 +3291,7 @@
         <v>1994</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="6" t="s">
@@ -3337,19 +3299,19 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3361,7 +3323,7 @@
         <v>1995</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -3369,19 +3331,19 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3393,7 +3355,7 @@
         <v>1995</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
@@ -3401,19 +3363,19 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3425,7 +3387,7 @@
         <v>1995</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
@@ -3433,19 +3395,19 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3457,7 +3419,7 @@
         <v>1995</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
@@ -3465,19 +3427,19 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3489,7 +3451,7 @@
         <v>1995</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
@@ -3497,19 +3459,19 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3521,7 +3483,7 @@
         <v>1995</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="6" t="s">
@@ -3529,19 +3491,19 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>116</v>
+        <v>732</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3553,7 +3515,7 @@
         <v>1995</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="6" t="s">
@@ -3561,19 +3523,19 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>120</v>
+        <v>738</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3585,7 +3547,7 @@
         <v>1995</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="6" t="s">
@@ -3593,16 +3555,16 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -3615,7 +3577,7 @@
         <v>1995</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="6" t="s">
@@ -3623,19 +3585,19 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3647,7 +3609,7 @@
         <v>1996</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="6" t="s">
@@ -3658,16 +3620,16 @@
         <v>9</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>66</v>
+        <v>737</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3679,7 +3641,7 @@
         <v>1996</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="6" t="s">
@@ -3687,19 +3649,19 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>66</v>
+        <v>737</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3711,7 +3673,7 @@
         <v>1996</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
@@ -3719,10 +3681,10 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>11</v>
@@ -3731,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3743,7 +3705,7 @@
         <v>1997</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
@@ -3751,19 +3713,19 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3775,7 +3737,7 @@
         <v>1997</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="6" t="s">
@@ -3786,16 +3748,16 @@
         <v>9</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3807,7 +3769,7 @@
         <v>1997</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="6" t="s">
@@ -3815,19 +3777,19 @@
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3839,7 +3801,7 @@
         <v>1997</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="6" t="s">
@@ -3847,19 +3809,19 @@
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3871,7 +3833,7 @@
         <v>1997</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="6" t="s">
@@ -3879,19 +3841,19 @@
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3903,7 +3865,7 @@
         <v>1997</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="6" t="s">
@@ -3914,16 +3876,16 @@
         <v>14</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3935,7 +3897,7 @@
         <v>1997</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="6" t="s">
@@ -3946,16 +3908,16 @@
         <v>14</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3967,7 +3929,7 @@
         <v>1998</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="6" t="s">
@@ -3978,16 +3940,16 @@
         <v>9</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4001,7 +3963,7 @@
         <v>1999</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6" t="s">
@@ -4009,19 +3971,19 @@
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4033,7 +3995,7 @@
         <v>2000</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="6" t="s">
@@ -4044,16 +4006,16 @@
         <v>9</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4065,27 +4027,27 @@
         <v>2000</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4097,29 +4059,29 @@
         <v>2000</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4131,7 +4093,7 @@
         <v>2001</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="6" t="s">
@@ -4139,19 +4101,19 @@
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4163,7 +4125,7 @@
         <v>2001</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="6" t="s">
@@ -4174,16 +4136,16 @@
         <v>14</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4195,7 +4157,7 @@
         <v>2002</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
@@ -4203,19 +4165,19 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4227,7 +4189,7 @@
         <v>2002</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -4235,19 +4197,19 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4259,7 +4221,7 @@
         <v>2002</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="6" t="s">
@@ -4267,10 +4229,10 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>11</v>
@@ -4279,7 +4241,7 @@
         <v>6</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4291,7 +4253,7 @@
         <v>2003</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="6" t="s">
@@ -4302,16 +4264,16 @@
         <v>9</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4323,7 +4285,7 @@
         <v>2003</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="6" t="s">
@@ -4331,19 +4293,19 @@
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4355,7 +4317,7 @@
         <v>2003</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="6" t="s">
@@ -4363,19 +4325,19 @@
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4387,7 +4349,7 @@
         <v>2003</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="6" t="s">
@@ -4395,19 +4357,19 @@
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4421,7 +4383,7 @@
         <v>2004</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="6" t="s">
@@ -4429,19 +4391,19 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4453,7 +4415,7 @@
         <v>2005</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="6" t="s">
@@ -4464,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
@@ -4483,7 +4445,7 @@
         <v>2005</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="6" t="s">
@@ -4491,19 +4453,19 @@
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4515,7 +4477,7 @@
         <v>2005</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="6" t="s">
@@ -4523,19 +4485,19 @@
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4547,7 +4509,7 @@
         <v>2006</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
@@ -4555,19 +4517,19 @@
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>243</v>
+        <v>735</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4579,7 +4541,7 @@
         <v>2006</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="6" t="s">
@@ -4587,19 +4549,19 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4611,7 +4573,7 @@
         <v>2006</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="6" t="s">
@@ -4622,16 +4584,16 @@
         <v>14</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4643,7 +4605,7 @@
         <v>2007</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
@@ -4651,19 +4613,19 @@
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4675,7 +4637,7 @@
         <v>2007</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
@@ -4683,19 +4645,19 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>259</v>
+        <v>737</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4707,7 +4669,7 @@
         <v>2007</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="6" t="s">
@@ -4718,16 +4680,16 @@
         <v>9</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>264</v>
+        <v>733</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4739,7 +4701,7 @@
         <v>2007</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="6" t="s">
@@ -4747,19 +4709,19 @@
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4771,7 +4733,7 @@
         <v>2007</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="6" t="s">
@@ -4779,10 +4741,10 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>11</v>
@@ -4791,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4803,7 +4765,7 @@
         <v>2007</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="6" t="s">
@@ -4811,19 +4773,19 @@
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4835,7 +4797,7 @@
         <v>2007</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="6" t="s">
@@ -4843,19 +4805,19 @@
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4867,7 +4829,7 @@
         <v>2007</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="6" t="s">
@@ -4878,7 +4840,7 @@
         <v>14</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>11</v>
@@ -4887,7 +4849,7 @@
         <v>6</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4899,7 +4861,7 @@
         <v>2007</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="6" t="s">
@@ -4910,16 +4872,16 @@
         <v>14</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4931,7 +4893,7 @@
         <v>2008</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
@@ -4939,19 +4901,19 @@
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4963,7 +4925,7 @@
         <v>2008</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
@@ -4971,19 +4933,19 @@
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4995,7 +4957,7 @@
         <v>2008</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="6" t="s">
@@ -5003,10 +4965,10 @@
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>11</v>
@@ -5015,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5027,7 +4989,7 @@
         <v>2008</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="6" t="s">
@@ -5038,16 +5000,16 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5059,7 +5021,7 @@
         <v>2008</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="6" t="s">
@@ -5070,16 +5032,16 @@
         <v>14</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5091,7 +5053,7 @@
         <v>2008</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
@@ -5102,16 +5064,16 @@
         <v>14</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5123,7 +5085,7 @@
         <v>2009</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E76" s="6">
         <v>2</v>
@@ -5133,19 +5095,19 @@
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5157,7 +5119,7 @@
         <v>2009</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
@@ -5165,19 +5127,19 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>116</v>
+        <v>736</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5191,7 +5153,7 @@
         <v>2009</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="6" t="s">
@@ -5199,19 +5161,19 @@
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5223,7 +5185,7 @@
         <v>2009</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="6" t="s">
@@ -5231,19 +5193,19 @@
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5255,7 +5217,7 @@
         <v>2009</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="6" t="s">
@@ -5263,19 +5225,19 @@
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5287,7 +5249,7 @@
         <v>2010</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="6" t="s">
@@ -5295,19 +5257,19 @@
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5319,7 +5281,7 @@
         <v>2010</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="6" t="s">
@@ -5327,19 +5289,19 @@
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5351,7 +5313,7 @@
         <v>2011</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
@@ -5359,19 +5321,19 @@
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5383,7 +5345,7 @@
         <v>2011</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="6" t="s">
@@ -5391,19 +5353,19 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5415,7 +5377,7 @@
         <v>2011</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="6" t="s">
@@ -5423,19 +5385,19 @@
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5447,7 +5409,7 @@
         <v>2011</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="6" t="s">
@@ -5455,19 +5417,19 @@
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5479,7 +5441,7 @@
         <v>2011</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="6" t="s">
@@ -5490,16 +5452,16 @@
         <v>14</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5511,7 +5473,7 @@
         <v>2011</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="6" t="s">
@@ -5522,16 +5484,16 @@
         <v>14</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>48</v>
+        <v>739</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5543,7 +5505,7 @@
         <v>2012</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
@@ -5551,19 +5513,19 @@
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5575,7 +5537,7 @@
         <v>2012</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="6" t="s">
@@ -5583,19 +5545,19 @@
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5607,7 +5569,7 @@
         <v>2013</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
@@ -5617,19 +5579,19 @@
         <v>2</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5641,7 +5603,7 @@
         <v>2013</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
@@ -5649,19 +5611,19 @@
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>24</v>
+        <v>734</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5673,7 +5635,7 @@
         <v>2013</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -5681,19 +5643,19 @@
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5705,7 +5667,7 @@
         <v>2013</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="6" t="s">
@@ -5713,19 +5675,19 @@
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5737,7 +5699,7 @@
         <v>2013</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="6" t="s">
@@ -5748,16 +5710,16 @@
         <v>14</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5769,7 +5731,7 @@
         <v>2013</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="6" t="s">
@@ -5777,19 +5739,19 @@
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5801,7 +5763,7 @@
         <v>2014</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
@@ -5809,19 +5771,19 @@
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5833,29 +5795,29 @@
         <v>2014</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5867,7 +5829,7 @@
         <v>2014</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="6" t="s">
@@ -5875,19 +5837,19 @@
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5899,29 +5861,29 @@
         <v>2014</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J100" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="G100" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="K100" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5933,7 +5895,7 @@
         <v>2014</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
@@ -5941,19 +5903,19 @@
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5965,7 +5927,7 @@
         <v>2014</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="6" t="s">
@@ -5973,19 +5935,19 @@
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5997,7 +5959,7 @@
         <v>2014</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="6" t="s">
@@ -6005,19 +5967,19 @@
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>170</v>
+        <v>736</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6029,7 +5991,7 @@
         <v>2014</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="6" t="s">
@@ -6037,19 +5999,19 @@
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6061,7 +6023,7 @@
         <v>2014</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="6" t="s">
@@ -6072,16 +6034,16 @@
         <v>14</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6095,7 +6057,7 @@
         <v>2014</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="6" t="s">
@@ -6106,16 +6068,16 @@
         <v>14</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>66</v>
+        <v>737</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6127,7 +6089,7 @@
         <v>2015</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
@@ -6135,19 +6097,19 @@
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6159,7 +6121,7 @@
         <v>2015</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="6" t="s">
@@ -6167,19 +6129,19 @@
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6191,7 +6153,7 @@
         <v>2015</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="6" t="s">
@@ -6199,19 +6161,19 @@
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6223,29 +6185,29 @@
         <v>2015</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6257,7 +6219,7 @@
         <v>2015</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
@@ -6265,19 +6227,19 @@
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>48</v>
+        <v>739</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6289,7 +6251,7 @@
         <v>2015</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="6" t="s">
@@ -6297,19 +6259,19 @@
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6321,7 +6283,7 @@
         <v>2015</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="2" t="s">
@@ -6331,19 +6293,19 @@
         <v>2</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6355,7 +6317,7 @@
         <v>2015</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="6" t="s">
@@ -6363,19 +6325,19 @@
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6387,7 +6349,7 @@
         <v>2015</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="6" t="s">
@@ -6395,19 +6357,19 @@
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6419,7 +6381,7 @@
         <v>2015</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="6" t="s">
@@ -6427,19 +6389,19 @@
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6451,7 +6413,7 @@
         <v>2015</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="6" t="s">
@@ -6459,19 +6421,19 @@
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6483,7 +6445,7 @@
         <v>2015</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="6" t="s">
@@ -6491,19 +6453,19 @@
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6515,7 +6477,7 @@
         <v>2015</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="6" t="s">
@@ -6526,16 +6488,16 @@
         <v>14</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6547,7 +6509,7 @@
         <v>2015</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="6" t="s">
@@ -6558,16 +6520,16 @@
         <v>14</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="K120" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6579,7 +6541,7 @@
         <v>2015</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="6" t="s">
@@ -6590,16 +6552,16 @@
         <v>14</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6611,7 +6573,7 @@
         <v>2016</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
@@ -6619,19 +6581,19 @@
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6643,7 +6605,7 @@
         <v>2016</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
@@ -6651,19 +6613,19 @@
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>481</v>
+        <v>737</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6677,7 +6639,7 @@
         <v>2016</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -6685,19 +6647,19 @@
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="K124" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6709,7 +6671,7 @@
         <v>2016</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
@@ -6717,19 +6679,19 @@
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>490</v>
+        <v>733</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6741,7 +6703,7 @@
         <v>2016</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
@@ -6749,19 +6711,19 @@
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6773,7 +6735,7 @@
         <v>2016</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
@@ -6781,19 +6743,19 @@
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6805,7 +6767,7 @@
         <v>2016</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -6813,19 +6775,19 @@
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6837,7 +6799,7 @@
         <v>2016</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="6" t="s">
@@ -6845,19 +6807,19 @@
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6869,7 +6831,7 @@
         <v>2016</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="6" t="s">
@@ -6877,19 +6839,19 @@
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>116</v>
+        <v>732</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6901,7 +6863,7 @@
         <v>2016</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="6" t="s">
@@ -6909,19 +6871,19 @@
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>116</v>
+        <v>736</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6933,7 +6895,7 @@
         <v>2016</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="6" t="s">
@@ -6941,19 +6903,19 @@
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K132" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6965,7 +6927,7 @@
         <v>2016</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="6" t="s">
@@ -6973,19 +6935,19 @@
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>520</v>
+        <v>739</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6997,7 +6959,7 @@
         <v>2016</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="6" t="s">
@@ -7005,19 +6967,19 @@
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7029,7 +6991,7 @@
         <v>2016</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="6" t="s">
@@ -7040,16 +7002,16 @@
         <v>14</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7061,7 +7023,7 @@
         <v>2016</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="6" t="s">
@@ -7072,16 +7034,16 @@
         <v>14</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7093,7 +7055,7 @@
         <v>2016</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="6" t="s">
@@ -7104,16 +7066,16 @@
         <v>14</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7125,7 +7087,7 @@
         <v>2016</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="6" t="s">
@@ -7136,16 +7098,16 @@
         <v>14</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7157,29 +7119,29 @@
         <v>2017</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7193,7 +7155,7 @@
         <v>2017</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
@@ -7201,19 +7163,19 @@
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7227,7 +7189,7 @@
         <v>2017</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
@@ -7235,19 +7197,19 @@
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>48</v>
+        <v>739</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7259,7 +7221,7 @@
         <v>2017</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
@@ -7267,19 +7229,19 @@
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7293,7 +7255,7 @@
         <v>2017</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="6" t="s">
@@ -7304,16 +7266,16 @@
         <v>9</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7327,7 +7289,7 @@
         <v>2017</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="6" t="s">
@@ -7337,19 +7299,19 @@
         <v>2</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7363,7 +7325,7 @@
         <v>2017</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
@@ -7371,19 +7333,19 @@
       </c>
       <c r="G145" s="6"/>
       <c r="H145" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7395,7 +7357,7 @@
         <v>2017</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
@@ -7403,19 +7365,19 @@
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="K146" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7427,7 +7389,7 @@
         <v>2017</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
@@ -7435,19 +7397,19 @@
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>116</v>
+        <v>732</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7461,7 +7423,7 @@
         <v>2017</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="6" t="s">
@@ -7469,19 +7431,19 @@
       </c>
       <c r="G148" s="6"/>
       <c r="H148" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>24</v>
+        <v>735</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7493,7 +7455,7 @@
         <v>2017</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="6" t="s">
@@ -7501,19 +7463,19 @@
       </c>
       <c r="G149" s="6"/>
       <c r="H149" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7525,7 +7487,7 @@
         <v>2017</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
@@ -7533,19 +7495,19 @@
       </c>
       <c r="G150" s="6"/>
       <c r="H150" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7557,7 +7519,7 @@
         <v>2017</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="6" t="s">
@@ -7565,19 +7527,19 @@
       </c>
       <c r="G151" s="6"/>
       <c r="H151" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>24</v>
+        <v>737</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7591,7 +7553,7 @@
         <v>2017</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="6" t="s">
@@ -7599,19 +7561,19 @@
       </c>
       <c r="G152" s="6"/>
       <c r="H152" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7625,7 +7587,7 @@
         <v>2017</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="6" t="s">
@@ -7633,19 +7595,19 @@
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7659,7 +7621,7 @@
         <v>2017</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="6" t="s">
@@ -7667,19 +7629,19 @@
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>597</v>
+        <v>6</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7691,7 +7653,7 @@
         <v>2017</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="6" t="s">
@@ -7702,16 +7664,16 @@
         <v>14</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7723,7 +7685,7 @@
         <v>2017</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="6" t="s">
@@ -7734,16 +7696,16 @@
         <v>14</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="K156" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7755,7 +7717,7 @@
         <v>2017</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="6" t="s">
@@ -7763,10 +7725,10 @@
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="J157" s="6" t="s">
         <v>11</v>
@@ -7775,7 +7737,7 @@
         <v>6</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7789,7 +7751,7 @@
         <v>2018</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="2" t="s">
@@ -7799,19 +7761,19 @@
         <v>2</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7823,7 +7785,7 @@
         <v>2018</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="2" t="s">
@@ -7833,19 +7795,19 @@
         <v>2</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>481</v>
+        <v>735</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7857,7 +7819,7 @@
         <v>2018</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3" t="s">
@@ -7865,10 +7827,10 @@
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>11</v>
@@ -7877,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7889,7 +7851,7 @@
         <v>2018</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
@@ -7897,19 +7859,19 @@
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7921,7 +7883,7 @@
         <v>2018</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
@@ -7929,19 +7891,19 @@
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7955,7 +7917,7 @@
         <v>2018</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3" t="s">
@@ -7963,19 +7925,19 @@
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7987,7 +7949,7 @@
         <v>2018</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="2" t="s">
@@ -7997,19 +7959,19 @@
         <v>2</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8023,7 +7985,7 @@
         <v>2018</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="6" t="s">
@@ -8034,16 +7996,16 @@
         <v>9</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8057,7 +8019,7 @@
         <v>2018</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="6" t="s">
@@ -8068,16 +8030,16 @@
         <v>9</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8089,29 +8051,29 @@
         <v>2018</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8123,29 +8085,29 @@
         <v>2018</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8157,29 +8119,29 @@
         <v>2018</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8191,29 +8153,29 @@
         <v>2018</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8227,27 +8189,27 @@
         <v>2018</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="6" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8259,7 +8221,7 @@
         <v>2018</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="6" t="s">
@@ -8267,10 +8229,10 @@
       </c>
       <c r="G172" s="6"/>
       <c r="H172" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>11</v>
@@ -8279,7 +8241,7 @@
         <v>6</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8293,7 +8255,7 @@
         <v>2018</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="6" t="s">
@@ -8301,19 +8263,19 @@
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8325,7 +8287,7 @@
         <v>2018</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="6" t="s">
@@ -8333,19 +8295,19 @@
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8357,7 +8319,7 @@
         <v>2018</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="6" t="s">
@@ -8365,19 +8327,19 @@
       </c>
       <c r="G175" s="6"/>
       <c r="H175" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8389,7 +8351,7 @@
         <v>2018</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="2" t="s">
@@ -8397,19 +8359,19 @@
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="2" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8421,7 +8383,7 @@
         <v>2018</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="6" t="s">
@@ -8429,19 +8391,19 @@
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="K177" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8453,29 +8415,29 @@
         <v>2018</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="K178" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8487,7 +8449,7 @@
         <v>2018</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E179" s="6">
         <v>3</v>
@@ -8496,22 +8458,22 @@
         <v>1</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>703</v>
+        <v>6</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8523,7 +8485,7 @@
         <v>2018</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E180" s="6">
         <v>3</v>
@@ -8536,16 +8498,16 @@
         <v>3</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>264</v>
+        <v>733</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8557,7 +8519,7 @@
         <v>2018</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
       <c r="E181" s="6">
         <v>3</v>
@@ -8567,19 +8529,19 @@
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>264</v>
+        <v>733</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8591,29 +8553,29 @@
         <v>2018</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>192</v>
+        <v>738</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8625,7 +8587,7 @@
         <v>2018</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="2" t="s">
@@ -8635,19 +8597,19 @@
         <v>2</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>264</v>
+        <v>733</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8661,29 +8623,29 @@
         <v>2018</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8695,7 +8657,7 @@
         <v>2018</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="6" t="s">
@@ -8706,16 +8668,16 @@
         <v>14</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>124</v>
+        <v>735</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8727,7 +8689,7 @@
         <v>2018</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="6" t="s">
@@ -8738,16 +8700,16 @@
         <v>14</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>116</v>
+        <v>735</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8759,7 +8721,7 @@
         <v>2018</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="6" t="s">
@@ -8770,16 +8732,16 @@
         <v>14</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>116</v>
+        <v>735</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8791,7 +8753,7 @@
         <v>2018</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="6" t="s">
@@ -8802,16 +8764,16 @@
         <v>14</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>24</v>
+        <v>732</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8825,7 +8787,7 @@
         <v>2018</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="6" t="s">
@@ -8836,16 +8798,16 @@
         <v>14</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8857,7 +8819,7 @@
         <v>2018</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="6" t="s">
@@ -8868,16 +8830,16 @@
         <v>14</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="J190" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="K190" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="L190" s="4" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8889,7 +8851,7 @@
         <v>2018</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="6" t="s">
@@ -8900,16 +8862,16 @@
         <v>14</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>17</v>
+        <v>735</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
